--- a/biology/Histoire de la zoologie et de la botanique/William_MacGillivray/William_MacGillivray.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_MacGillivray/William_MacGillivray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William MacGillivray (Aberdeen, 25 janvier 1796 - Aberdeen, 4 septembre 1852) était un naturaliste et ornithologue écossais.
 MacGillivray est né à Aberdeen mais a grandi à Harris. Il retourna à Aberdeen pour étudier la médecine au King's College.
@@ -515,7 +527,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1833 : A Biography of Alexander von Humboldt.
 1834 : Lives of eminent zoologists from Aristote to Linnaeus.
@@ -556,7 +570,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1901 : A memorial tribute to William MacGillivray (Édimbourg) – Exemplaire numérique sur Internet Archive.
 1910 : Life of William MacGillivray (Murray, Londres) – Exemplaire numérique sur Internet Archive.</t>
